--- a/data/SupplementaryReportedTables.xlsx
+++ b/data/SupplementaryReportedTables.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Xuser/SFU_Cogs_Lab/DigitEyes/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33A99D14-287C-2843-B928-1CD4EFCEA992}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="900" yWindow="2540" windowWidth="36580" windowHeight="12920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fixation Duration" sheetId="1" r:id="rId4"/>
-    <sheet name="PAC Duration" sheetId="2" r:id="rId5"/>
-    <sheet name="First Action Latency" sheetId="3" r:id="rId6"/>
-    <sheet name="Between Action Latency" sheetId="4" r:id="rId7"/>
-    <sheet name="New View Cost" sheetId="5" r:id="rId8"/>
-    <sheet name="Between Fixation Amplitude" sheetId="6" r:id="rId9"/>
-    <sheet name="Hotkey_Select Ratio" sheetId="7" r:id="rId10"/>
-    <sheet name="OffScreen Production" sheetId="8" r:id="rId11"/>
-    <sheet name="Map Ability Per Min" sheetId="9" r:id="rId12"/>
-    <sheet name="Map Attack " sheetId="10" r:id="rId13"/>
-    <sheet name="Map Right Click " sheetId="11" r:id="rId14"/>
+    <sheet name="Fixation Duration" sheetId="1" r:id="rId1"/>
+    <sheet name="PAC Duration" sheetId="2" r:id="rId2"/>
+    <sheet name="First Action Latency" sheetId="3" r:id="rId3"/>
+    <sheet name="Between Action Latency" sheetId="4" r:id="rId4"/>
+    <sheet name="New View Cost" sheetId="5" r:id="rId5"/>
+    <sheet name="Between Fixation Amplitude" sheetId="6" r:id="rId6"/>
+    <sheet name="Hotkey_Select Ratio" sheetId="7" r:id="rId7"/>
+    <sheet name="OffScreen Production" sheetId="8" r:id="rId8"/>
+    <sheet name="Map Ability Per Min" sheetId="9" r:id="rId9"/>
+    <sheet name="Map Attack " sheetId="10" r:id="rId10"/>
+    <sheet name="Map Right Click " sheetId="11" r:id="rId11"/>
   </sheets>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Fixation Duration (Additional Details for Reported Median Values)</t>
   </si>
@@ -163,18 +171,188 @@
   </si>
   <si>
     <t>MapRCPerMin.medianVal</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>=334.45, p&lt;0.001</t>
+    </r>
+  </si>
+  <si>
+    <t>isPAC=1</t>
+  </si>
+  <si>
+    <t>isPAC=0</t>
+  </si>
+  <si>
+    <r>
+      <t>𝜒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1051.4, p&lt;0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝜒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6) =  1941</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p&lt;0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝜒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>=422.63, p&lt;0.001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>𝜒</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1576.9, p&lt;0.001</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000"/>
-    <numFmt numFmtId="60" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -186,10 +364,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -327,93 +524,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,26 +627,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -642,7 +904,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -661,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,9 +1174,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -931,7 +1199,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -950,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1054,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,7 +1452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,9 +1465,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1213,7 +1487,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1232,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1536,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1562,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1314,7 +1588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1340,7 +1614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,7 +1692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1444,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1470,7 +1744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1483,289 +1757,305 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>511.72466</v>
-      </c>
-      <c r="C3" s="5">
-        <v>142.54712</v>
-      </c>
-      <c r="D3" s="5">
-        <v>496.98028</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="4">
+        <v>511.72465999999997</v>
+      </c>
+      <c r="C3" s="4">
+        <v>142.54712000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>498.087</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="6">
+        <v>498.08699999999999</v>
+      </c>
+      <c r="C4" s="6">
         <v>139.56188</v>
       </c>
-      <c r="D4" s="7">
-        <v>496.98028</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="D4" s="6">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>496.15583</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
+        <v>496.15582999999998</v>
+      </c>
+      <c r="C5" s="6">
         <v>128.09929</v>
       </c>
-      <c r="D5" s="7">
-        <v>496.98028</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="D5" s="6">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>501.00316</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="6">
+        <v>501.00315999999998</v>
+      </c>
+      <c r="C6" s="6">
         <v>107.23853</v>
       </c>
-      <c r="D6" s="7">
-        <v>496.98028</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="D6" s="6">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>493.11174</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>104.58399</v>
       </c>
-      <c r="D7" s="7">
-        <v>496.98028</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="D7" s="6">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>481.05617</v>
-      </c>
-      <c r="C8" s="7">
-        <v>85.30802</v>
-      </c>
-      <c r="D8" s="7">
-        <v>496.98028</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="B8" s="6">
+        <v>481.05617000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>85.308019999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>496.98027999999999</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>451.80025</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="6">
+        <v>451.80025000000001</v>
+      </c>
+      <c r="C9" s="6">
         <v>62.85521</v>
       </c>
-      <c r="D9" s="7">
-        <v>451.80025</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D9" s="6">
+        <v>451.80025000000001</v>
+      </c>
+      <c r="E9" s="29">
+        <f>36/88.5347*1000</f>
+        <v>406.62022913049913</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1773,187 +2063,189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>0.1466146</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.2815992</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="4">
+        <v>0.14661460000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.28159919999999999</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="23">
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.2398798</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.5696301</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.047619</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="23">
+      <c r="D4" s="6">
+        <v>0.56963010000000003</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.7619000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.3022548</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.7426751</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="C5" s="6">
+        <v>0.30225479999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.74267510000000003</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="23">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.400019</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.6261562000000001</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.17647</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="23">
+      <c r="C6" s="6">
+        <v>0.40001900000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.62615620000000005</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.17646999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.6016052</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1.0295385</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="C7" s="6">
+        <v>0.60160519999999995</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.0295384999999999</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.28869</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="23">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.8188639</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.1734261</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="C8" s="6">
+        <v>0.81886389999999998</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.1734260999999999</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="23">
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
-        <v>1.9738946</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.918386</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1.27205</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C9" s="6">
+        <v>1.9738945999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.9183859999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.2720499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1961,187 +2253,189 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="27" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="27" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>1.220457</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="4">
+        <v>1.2204569999999999</v>
+      </c>
+      <c r="D3" s="4">
         <v>1.183467</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.83333</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="23">
+      <c r="E3" s="4">
+        <v>0.83333000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.600133</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1.607046</v>
       </c>
-      <c r="E4" s="7">
-        <v>1.1304</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="23">
+      <c r="E4" s="6">
+        <v>1.1304000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>1.935456</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="6">
+        <v>1.9354560000000001</v>
+      </c>
+      <c r="D5" s="6">
         <v>1.828462</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1.4641</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="23">
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
-        <v>2.138985</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2.070604</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="C6" s="6">
+        <v>2.1389849999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.0706039999999999</v>
+      </c>
+      <c r="E6" s="6">
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="23">
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
-        <v>2.524786</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="6">
+        <v>2.5247860000000002</v>
+      </c>
+      <c r="D7" s="6">
         <v>2.236275</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1.875</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="23">
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
-        <v>2.769718</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2.509193</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2.06005</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="23">
+      <c r="C8" s="6">
+        <v>2.7697180000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.5091929999999998</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.0600499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
-        <v>3.45929</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2.779187</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.94195</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="C9" s="6">
+        <v>3.4592900000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.7791869999999999</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.9419499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2149,160 +2443,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="9" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="8" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
-        <v>2771.6728</v>
-      </c>
-      <c r="C3" s="10">
-        <v>866.3616</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2597.8515</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="9">
+        <v>2771.6727999999998</v>
+      </c>
+      <c r="C3" s="9">
+        <v>866.36159999999995</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2597.8515000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
-        <v>2467.4544</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="10">
+        <v>2467.4544000000001</v>
+      </c>
+      <c r="C4" s="10">
         <v>845.9325</v>
       </c>
-      <c r="D4" s="11">
-        <v>2304.1813</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="D4" s="10">
+        <v>2304.1813000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
-        <v>2204.8347</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="10">
+        <v>2204.8346999999999</v>
+      </c>
+      <c r="C5" s="6">
         <v>578.678</v>
       </c>
-      <c r="D5" s="11">
-        <v>2123.4612</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="D5" s="10">
+        <v>2123.4612000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1969.4384</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>479.928</v>
       </c>
-      <c r="D6" s="11">
-        <v>1897.5611</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="D6" s="10">
+        <v>1897.5610999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
-        <v>1747.5069</v>
-      </c>
-      <c r="C7" s="11">
-        <v>416.8471</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1671.6609</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="10">
+        <v>1747.5069000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>416.84710000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1671.6609000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>1560.8958</v>
       </c>
-      <c r="C8" s="11">
-        <v>379.8026</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1536.1209</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="C8" s="10">
+        <v>379.80259999999998</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1536.1208999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1308.8089</v>
       </c>
-      <c r="C9" s="11">
-        <v>248.1214</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="10">
+        <v>248.12139999999999</v>
+      </c>
+      <c r="D9" s="10">
         <v>1265.0407</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2310,160 +2610,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="12" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27" style="11" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
-        <v>1060.94575</v>
-      </c>
-      <c r="C3" s="13">
-        <v>278.51094</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="B3" s="12">
+        <v>1060.9457500000001</v>
+      </c>
+      <c r="C3" s="12">
+        <v>278.51094000000001</v>
+      </c>
+      <c r="D3" s="12">
         <v>1052.75333</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>900.25154</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="6">
+        <v>900.25153999999998</v>
+      </c>
+      <c r="C4" s="6">
         <v>207.27516</v>
       </c>
-      <c r="D4" s="7">
-        <v>874.81631</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="D4" s="6">
+        <v>874.81631000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>815.14093</v>
-      </c>
-      <c r="C5" s="7">
-        <v>188.37766</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6">
+        <v>815.14093000000003</v>
+      </c>
+      <c r="C5" s="6">
+        <v>188.37765999999999</v>
+      </c>
+      <c r="D5" s="6">
         <v>799.77229</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>713.93848</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="6">
+        <v>713.93848000000003</v>
+      </c>
+      <c r="C6" s="6">
         <v>151.10405</v>
       </c>
-      <c r="D6" s="7">
-        <v>693.78899</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="D6" s="6">
+        <v>693.78899000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>614.95838</v>
-      </c>
-      <c r="C7" s="7">
-        <v>130.41662</v>
-      </c>
-      <c r="D7" s="7">
-        <v>603.66387</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="6">
+        <v>614.95838000000003</v>
+      </c>
+      <c r="C7" s="6">
+        <v>130.41661999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>603.66386999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>533.19029</v>
       </c>
-      <c r="C8" s="7">
-        <v>121.03351</v>
-      </c>
-      <c r="D8" s="7">
-        <v>523.45803</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="C8" s="6">
+        <v>121.03351000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>523.45803000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>430.67238</v>
-      </c>
-      <c r="C9" s="7">
-        <v>73.72846</v>
-      </c>
-      <c r="D9" s="7">
-        <v>422.65914</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B9" s="6">
+        <v>430.67237999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>73.728459999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>422.65913999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2471,160 +2775,164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="14" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="13" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>732.6781999999999</v>
-      </c>
-      <c r="C3" s="5">
-        <v>762.3792999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>515.0522999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="4">
+        <v>732.67819999999995</v>
+      </c>
+      <c r="C3" s="4">
+        <v>762.37929999999994</v>
+      </c>
+      <c r="D3" s="4">
+        <v>515.05229999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>572.9324</v>
-      </c>
-      <c r="C4" s="7">
-        <v>584.4927</v>
-      </c>
-      <c r="D4" s="7">
-        <v>406.6202</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6">
+        <v>572.93240000000003</v>
+      </c>
+      <c r="C4" s="6">
+        <v>584.49270000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>406.62020000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>505.4706</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
+        <v>505.47059999999999</v>
+      </c>
+      <c r="C5" s="6">
         <v>524.2577</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>361.4402</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>435.8008</v>
-      </c>
-      <c r="C6" s="7">
-        <v>423.0214</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6">
+        <v>435.80079999999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>423.02140000000003</v>
+      </c>
+      <c r="D6" s="6">
         <v>316.2602</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>371.1658</v>
-      </c>
-      <c r="C7" s="7">
-        <v>340.9294</v>
-      </c>
-      <c r="D7" s="7">
-        <v>271.0802</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="6">
+        <v>371.16579999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>340.92939999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>271.08019999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>327.5203</v>
-      </c>
-      <c r="C8" s="7">
-        <v>277.9638</v>
-      </c>
-      <c r="D8" s="7">
-        <v>256.0201</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="B8" s="6">
+        <v>327.52030000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>277.96379999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>256.02010000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>290.2619</v>
-      </c>
-      <c r="C9" s="7">
-        <v>218.5306</v>
-      </c>
-      <c r="D9" s="7">
-        <v>248.4901</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B9" s="6">
+        <v>290.26190000000003</v>
+      </c>
+      <c r="C9" s="6">
+        <v>218.53059999999999</v>
+      </c>
+      <c r="D9" s="6">
+        <v>248.49010000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2632,160 +2940,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="14" customWidth="1"/>
+    <col min="3" max="256" width="16.33203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>274.62631</v>
-      </c>
-      <c r="C3" s="5">
-        <v>214.49197</v>
-      </c>
-      <c r="D3" s="5">
-        <v>271.31283</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="4">
+        <v>274.62630999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>214.49197000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>271.31283000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>278.80378</v>
-      </c>
-      <c r="C4" s="7">
-        <v>136.56288</v>
-      </c>
-      <c r="D4" s="7">
-        <v>269.80382</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6">
+        <v>278.80378000000002</v>
+      </c>
+      <c r="C4" s="6">
+        <v>136.56288000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>269.80381999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>274.12773</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
+        <v>274.12772999999999</v>
+      </c>
+      <c r="C5" s="6">
         <v>134.97181</v>
       </c>
-      <c r="D5" s="7">
-        <v>264.23368</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="D5" s="6">
+        <v>264.23367999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>248.81753</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>108.12805</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>240.38484</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>220.71745</v>
-      </c>
-      <c r="C7" s="7">
-        <v>86.83145</v>
-      </c>
-      <c r="D7" s="7">
-        <v>215.90461</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="6">
+        <v>220.71745000000001</v>
+      </c>
+      <c r="C7" s="6">
+        <v>86.831450000000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>215.90460999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>187.36309</v>
       </c>
-      <c r="C8" s="7">
-        <v>80.27741</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="6">
+        <v>80.277410000000003</v>
+      </c>
+      <c r="D8" s="6">
         <v>179.35736</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>136.21167</v>
       </c>
-      <c r="C9" s="7">
-        <v>49.29359</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="6">
+        <v>49.293590000000002</v>
+      </c>
+      <c r="D9" s="6">
         <v>125.05436</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2793,160 +3105,160 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="16" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="16" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.15849349</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.06506191</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="4">
+        <v>0.15849348999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.5061910000000001E-2</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.14372504</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.16164605</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.06534511</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.14490877</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6">
+        <v>0.16164605000000001</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6.5345109999999998E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.14490876999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.17715393</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.07094110000000001</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6">
+        <v>0.17715392999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7.0941100000000007E-2</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.16226357</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>0.19189666</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.07636747000000001</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="6">
+        <v>7.6367470000000007E-2</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.17323121</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.20834855</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.07746522</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.19451838</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="6">
+        <v>0.20834854999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7.7465220000000001E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.19451837999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.22624195</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.08556912999999999</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="6">
+        <v>8.5569129999999993E-2</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.20992775</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0.23246358</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.08074271</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="6">
+        <v>8.0742709999999995E-2</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.19706309</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2954,160 +3266,160 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="17" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="17" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.02178904</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.03295762</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.01030928</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="4">
+        <v>2.1789039999999999E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.295762E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0309280000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.02264179</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.03010124</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.01257862</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6">
+        <v>2.2641789999999998E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.0101240000000001E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.257862E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.02930435</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.03490609</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.01960784</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="B5" s="6">
+        <v>2.930435E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.4906090000000001E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.9607840000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.03710429</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.03828994</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.02857143</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="B6" s="6">
+        <v>3.7104289999999998E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.8289940000000001E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.8571429999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.04441012</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.04006194</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.03448276</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="B7" s="6">
+        <v>4.4410119999999997E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4.0061939999999997E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3.4482760000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.05318077</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.04309235</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.04347826</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="B8" s="6">
+        <v>5.3180770000000002E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4.3092350000000001E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.3478259999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.06737379</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.03900118</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.06393822</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B9" s="6">
+        <v>6.7373790000000003E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.9001180000000003E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.3938220000000004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3115,160 +3427,160 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="18" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="18" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>21.03307</v>
-      </c>
-      <c r="C3" s="5">
-        <v>17.60964</v>
-      </c>
-      <c r="D3" s="5">
-        <v>18.25397</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="B3" s="4">
+        <v>21.033069999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17.609639999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18.253969999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>26.76869</v>
-      </c>
-      <c r="C4" s="7">
-        <v>19.31931</v>
-      </c>
-      <c r="D4" s="7">
-        <v>23.8342</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="B4" s="6">
+        <v>26.768689999999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>19.319310000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>23.834199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>28.62511</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="6">
+        <v>28.625109999999999</v>
+      </c>
+      <c r="C5" s="6">
         <v>20.55678</v>
       </c>
-      <c r="D5" s="7">
-        <v>25.5814</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="D5" s="6">
+        <v>25.581399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>30.57803</v>
-      </c>
-      <c r="C6" s="7">
-        <v>19.18765</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="6">
+        <v>30.578029999999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>19.187650000000001</v>
+      </c>
+      <c r="D6" s="6">
         <v>29.2517</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>35.04809</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="6">
+        <v>35.048090000000002</v>
+      </c>
+      <c r="C7" s="6">
         <v>19.84873</v>
       </c>
-      <c r="D7" s="7">
-        <v>33.2381</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="D7" s="6">
+        <v>33.238100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>36.44834</v>
-      </c>
-      <c r="C8" s="7">
-        <v>19.57654</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="6">
+        <v>36.448340000000002</v>
+      </c>
+      <c r="C8" s="6">
+        <v>19.576540000000001</v>
+      </c>
+      <c r="D8" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>43.75772</v>
-      </c>
-      <c r="C9" s="7">
-        <v>16.54184</v>
-      </c>
-      <c r="D9" s="7">
-        <v>45.19481</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B9" s="6">
+        <v>43.757719999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16.541840000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45.194809999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3276,160 +3588,160 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="19" customWidth="1"/>
-    <col min="5" max="256" width="16.3516" style="19" customWidth="1"/>
+    <col min="1" max="256" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.05397109</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="4">
+        <v>5.3971089999999999E-2</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.24842523</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.04061961</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.1397706</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="6">
+        <v>4.061961E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.13977059999999999</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>0.06096658</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.18426443</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="6">
+        <v>6.0966579999999999E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.18426443000000001</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.03922927</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="6">
+        <v>3.9229269999999997E-2</v>
+      </c>
+      <c r="C6" s="6">
         <v>0.12308572</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
-        <v>0.05796729</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.1869129</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="6">
+        <v>5.7967289999999998E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.18691289999999999</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.05630587</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="6">
+        <v>5.6305870000000001E-2</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.16426245</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>0.14807053</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="6">
+        <v>0.14807053000000001</v>
+      </c>
+      <c r="C9" s="6">
         <v>0.29069697</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/SupplementaryReportedTables.xlsx
+++ b/data/SupplementaryReportedTables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Xuser/SFU_Cogs_Lab/DigitEyes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlynmccoleman/Library/Mobile Documents/com~apple~CloudDocs/Documents/cogslab/DigitEyes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33A99D14-287C-2843-B928-1CD4EFCEA992}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2540" windowWidth="36580" windowHeight="12920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="780" windowWidth="15960" windowHeight="15540" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Fixation Duration" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,20 @@
     <sheet name="Map Attack " sheetId="10" r:id="rId10"/>
     <sheet name="Map Right Click " sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Fixation Duration (Additional Details for Reported Median Values)</t>
   </si>
@@ -173,186 +180,24 @@
     <t>MapRCPerMin.medianVal</t>
   </si>
   <si>
-    <r>
-      <t>𝜒</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>=334.45, p&lt;0.001</t>
-    </r>
-  </si>
-  <si>
-    <t>isPAC=1</t>
-  </si>
-  <si>
-    <t>isPAC=0</t>
-  </si>
-  <si>
-    <r>
-      <t>𝜒</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>=1051.4, p&lt;0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>𝜒</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6) =  1941</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>, p&lt;0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>𝜒</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>=422.63, p&lt;0.001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>𝜒</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>=1576.9, p&lt;0.001</t>
-    </r>
+    <t>The median of each players' median fixation duration</t>
+  </si>
+  <si>
+    <t>The standard deviation of each players' median fixation duration</t>
+  </si>
+  <si>
+    <t>The mean of each players' median fixation duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -362,27 +207,16 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -528,7 +362,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -613,10 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,7 +455,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -640,33 +471,33 @@
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
       <rgbColor rgb="00008080"/>
       <rgbColor rgb="00C0C0C0"/>
       <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
       <rgbColor rgb="0000CCFF"/>
       <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00CCFFCC"/>
@@ -696,9 +527,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1775,22 +1603,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="A11:B11"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1928,10 +1755,7 @@
       <c r="D9" s="6">
         <v>451.80025000000001</v>
       </c>
-      <c r="E9" s="29">
-        <f>36/88.5347*1000</f>
-        <v>406.62022913049913</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -1942,15 +1766,17 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
@@ -2063,11 +1889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2078,7 +1904,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="19" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="19" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2253,11 +2080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2268,7 +2095,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="26" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="26" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2443,22 +2271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="A11:B11"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="8" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" style="8" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="8" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2588,12 +2415,8 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>47</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
@@ -2610,22 +2433,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="27" style="11" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" style="11" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="11" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2755,10 +2577,8 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
@@ -2775,22 +2595,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="13" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="13" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2921,9 +2740,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="28" t="s">
-        <v>53</v>
-      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
@@ -2940,22 +2757,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="14" customWidth="1"/>
-    <col min="3" max="256" width="16.33203125" style="14" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="14" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3085,10 +2901,8 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>52</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
@@ -3105,20 +2919,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="15" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="15" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3266,20 +3081,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="16" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="16" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3305,101 +3121,101 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>2.1789039999999999E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3.295762E-2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.0309280000000001E-2</v>
+      <c r="B3" s="28">
+        <v>0.43948670000000001</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.52135790000000004</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.26744190000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>2.2641789999999998E-2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3.0101240000000001E-2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.257862E-2</v>
+      <c r="B4" s="28">
+        <v>0.49885190000000001</v>
+      </c>
+      <c r="C4" s="28">
+        <v>0.61974910000000005</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.3429972</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5" s="28">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>2.930435E-2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.4906090000000001E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.9607840000000001E-2</v>
+      <c r="B5" s="28">
+        <v>0.58770610000000001</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.65067660000000005</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.39169110000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>3.7104289999999998E-2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3.8289940000000001E-2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.8571429999999998E-2</v>
+      <c r="B6" s="28">
+        <v>0.79573210000000005</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1.0354156000000001</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.51554449999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
+      <c r="A7" s="28">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>4.4410119999999997E-2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4.0061939999999997E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3.4482760000000001E-2</v>
+      <c r="B7" s="28">
+        <v>1.0391516999999999</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1.1855274</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.71848160000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>5.3180770000000002E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>4.3092350000000001E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4.3478259999999998E-2</v>
+      <c r="B8" s="28">
+        <v>1.4438621</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1.4976853999999999</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.97510870000000005</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
+      <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>6.7373790000000003E-2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3.9001180000000003E-2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>6.3938220000000004E-2</v>
+      <c r="B9" s="28">
+        <v>1.6534720000000001</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.89703940000000004</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1.2992611000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -3427,11 +3243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3440,7 +3256,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="17" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="17" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3588,11 +3405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3601,7 +3418,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="18" customWidth="1"/>
+    <col min="1" max="4" width="16.33203125" style="18" customWidth="1"/>
+    <col min="5" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
